--- a/pred_ohlcv/54_21/2020-01-15 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 QTUM ohlcv.xlsx
@@ -1744,7 +1744,7 @@
         <v>-8594.631045640002</v>
       </c>
       <c r="H52">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-9122.631045640002</v>
       </c>
       <c r="H53">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-9169.506645640002</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-10405.50664564</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-10305.50664564</v>
       </c>
       <c r="H56">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-10656.23354564</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>-10656.23354564</v>
       </c>
       <c r="H58">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-10656.23354564</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-10656.23354564</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -1978,7 +1978,7 @@
         <v>-10655.93354564</v>
       </c>
       <c r="H61">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2004,7 +2004,7 @@
         <v>-9309.158745640003</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-9163.500345640003</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-9187.161345640003</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-8767.416445640003</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-9297.122845640002</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-9297.122845640002</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-9120.425145640002</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-8034.347445640002</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-8249.331545640001</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-9449.331545640001</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-9675.028445640002</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-9442.175545640002</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-9976.018845640003</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-9976.018845640003</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-10133.55634564</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-9928.928845640003</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-10430.29874564</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-10357.06574564</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-11727.42414564</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-11716.99634564</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-11959.99634564</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-11946.35774564</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-10809.16564564</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-10808.16564564</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-11103.16564564</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-9675.884045640001</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-9639.857445640002</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-7899.033145640002</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-8458.374645640002</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-10197.28274564</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-9205.380998130004</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-9192.409698130004</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-10335.5891853</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-10435.40878530001</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9934.502985300005</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-8219.103685300004</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-7346.099785300004</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-7341.099785300004</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5360.375585300004</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-6385.786985300004</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-8340.094512410005</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6544.614312410005</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7265.780612410005</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-8493.381412410004</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-3633.641812410005</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3894.319112410005</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3894.059112410005</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1641.908712410004</v>
       </c>
       <c r="H281">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>-180.6392124100042</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>-258.9775124100042</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>-253.1741124100042</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>-5587.740812410004</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>-6182.810012410004</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>-6084.230212410003</v>
       </c>
       <c r="H334">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>-6040.841012410004</v>
       </c>
       <c r="H335">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>-6503.660812410004</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>-6503.060812410004</v>
       </c>
       <c r="H337">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9180,7 +9180,7 @@
         <v>-6502.169312410004</v>
       </c>
       <c r="H338">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>-6931.154112410004</v>
       </c>
       <c r="H339">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>-6764.571712410004</v>
       </c>
       <c r="H340">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H341">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>-5933.350112410004</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>-5931.550112410004</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>-5631.550112410004</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>-5964.649112410004</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>-5196.534429540004</v>
       </c>
       <c r="H350">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>-5682.238629540004</v>
       </c>
       <c r="H351">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>-5699.301629540004</v>
       </c>
       <c r="H352">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9570,7 +9570,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H353">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:8">
@@ -9596,7 +9596,7 @@
         <v>-795178.19012954</v>
       </c>
       <c r="H354">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="355" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-803827.7018295402</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-803939.9444295402</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-804109.7030295401</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-803550.3944295401</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-800743.9147295401</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>-800423.9085295401</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>-800453.9085295401</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H408">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H677">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H678">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H679">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-820426.7810327401</v>
       </c>
       <c r="H680">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-820601.9529327401</v>
       </c>
       <c r="H681">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-819507.8429327401</v>
       </c>
       <c r="H682">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-819866.7149327401</v>
       </c>
       <c r="H683">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-819866.7149327401</v>
       </c>
       <c r="H684">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-821010.8773327401</v>
       </c>
       <c r="H685">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-819872.4960327401</v>
       </c>
       <c r="H686">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H687">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H688">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H689">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-822577.9381273001</v>
       </c>
       <c r="H690">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-823218.0143273001</v>
       </c>
       <c r="H691">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-822895.2818273001</v>
       </c>
       <c r="H692">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-822806.9670273002</v>
       </c>
       <c r="H695">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-825436.6433273002</v>
       </c>
       <c r="H696">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -19554,7 +19554,7 @@
         <v>-835221.1137127604</v>
       </c>
       <c r="H737">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="738" spans="1:8">
@@ -19658,7 +19658,7 @@
         <v>-835058.3605291103</v>
       </c>
       <c r="H741">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="742" spans="1:8">
@@ -19684,7 +19684,7 @@
         <v>-835033.1626291103</v>
       </c>
       <c r="H742">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="743" spans="1:8">
@@ -19710,7 +19710,7 @@
         <v>-835239.4347291102</v>
       </c>
       <c r="H743">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="744" spans="1:8">
@@ -19736,7 +19736,7 @@
         <v>-835068.6676291102</v>
       </c>
       <c r="H744">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="745" spans="1:8">
@@ -19762,7 +19762,7 @@
         <v>-835168.6676291102</v>
       </c>
       <c r="H745">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="746" spans="1:8">
@@ -19866,7 +19866,7 @@
         <v>-836419.2375755302</v>
       </c>
       <c r="H749">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="750" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-853692.5049282101</v>
       </c>
       <c r="H840">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-854360.5414282101</v>
       </c>
       <c r="H841">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-856102.0802282101</v>
       </c>
       <c r="H842">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22310,7 +22310,7 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H843">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="844" spans="1:8">
@@ -22336,7 +22336,7 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H844">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="845" spans="1:8">
@@ -22362,7 +22362,7 @@
         <v>-858512.0847282101</v>
       </c>
       <c r="H845">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="846" spans="1:8">
@@ -22388,7 +22388,7 @@
         <v>-857988.6932282101</v>
       </c>
       <c r="H846">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="847" spans="1:8">
@@ -22414,7 +22414,7 @@
         <v>-857988.6932282101</v>
       </c>
       <c r="H847">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="848" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-857488.6932282101</v>
       </c>
       <c r="H849">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-823239.2646698898</v>
       </c>
       <c r="H911">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-822712.0783698899</v>
       </c>
       <c r="H912">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-819457.9345698899</v>
       </c>
       <c r="H913">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-829730.9743698899</v>
       </c>
       <c r="H914">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-832260.9885698899</v>
       </c>
       <c r="H915">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-831070.66246989</v>
       </c>
       <c r="H916">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-831958.3297698899</v>
       </c>
       <c r="H917">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-831937.74936989</v>
       </c>
       <c r="H918">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-829407.0379698899</v>
       </c>
       <c r="H919">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-826247.3054698899</v>
       </c>
       <c r="H920">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-827821.2679698899</v>
       </c>
       <c r="H921">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-827141.1373698899</v>
       </c>
       <c r="H922">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-822573.4970698899</v>
       </c>
       <c r="H923">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-828635.6042335799</v>
       </c>
       <c r="H924">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-828867.3488007199</v>
       </c>
       <c r="H925">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2020-01-15 QTUM ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-15 QTUM ohlcv.xlsx
@@ -6502,7 +6502,7 @@
         <v>-9205.380998130004</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-9192.409698130004</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-10335.5891853</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-10271.35528530001</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-10435.40878530001</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-9650.845085300005</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-9934.502985300005</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-8219.103685300004</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-7346.099785300004</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-7341.099785300004</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-5360.375585300004</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-6385.786985300004</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-8486.340985300005</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-8340.094512410005</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-8413.751712410005</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-6544.614312410005</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-7265.780612410005</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-8553.381412410004</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-8493.381412410004</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-6970.087012410005</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-7539.348912410005</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-5608.835512410005</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-5973.618612410005</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-5973.618612410005</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-6472.120112410005</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-6471.820112410005</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-3633.641812410005</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-3756.641812410005</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-3922.129612410005</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-3894.319112410005</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-3894.059112410005</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-4082.914012410004</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-4197.569712410004</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-1244.807412410004</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-1774.408712410004</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-1641.908712410004</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-1641.908712410004</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-2013.287912410005</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7750,7 +7750,7 @@
         <v>-2013.287912410005</v>
       </c>
       <c r="H283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-1922.352712410005</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7802,7 +7802,7 @@
         <v>-2720.520712410005</v>
       </c>
       <c r="H285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:8">
@@ -7828,7 +7828,7 @@
         <v>-252.6629124100045</v>
       </c>
       <c r="H286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:8">
@@ -7854,7 +7854,7 @@
         <v>-594.5078124100046</v>
       </c>
       <c r="H287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:8">
@@ -7880,7 +7880,7 @@
         <v>-511.3105124100046</v>
       </c>
       <c r="H288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>5406.792487589995</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -7932,7 +7932,7 @@
         <v>6412.528487589995</v>
       </c>
       <c r="H290">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291" spans="1:8">
@@ -7958,7 +7958,7 @@
         <v>6252.796487589995</v>
       </c>
       <c r="H291">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292" spans="1:8">
@@ -7984,7 +7984,7 @@
         <v>9760.573787589996</v>
       </c>
       <c r="H292">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293" spans="1:8">
@@ -8010,7 +8010,7 @@
         <v>7783.654687589996</v>
       </c>
       <c r="H293">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294" spans="1:8">
@@ -8036,7 +8036,7 @@
         <v>6123.997187589996</v>
       </c>
       <c r="H294">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295" spans="1:8">
@@ -8062,7 +8062,7 @@
         <v>8021.368987589995</v>
       </c>
       <c r="H295">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>8644.151787589995</v>
       </c>
       <c r="H296">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>8079.674487589995</v>
       </c>
       <c r="H297">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>7980.674487589995</v>
       </c>
       <c r="H298">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8166,7 +8166,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H299">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H300">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-579.8215124100043</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>2064.949187589996</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>1954.150687589996</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>1996.949687589996</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>1914.721287589996</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>1916.721287589996</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>-244.8715124100042</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>-244.8715124100042</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>538.9955875899958</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>682.5372875899958</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>782.7972875899958</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>371.6611875899958</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>481.6611875899958</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>-26.29881241000419</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>-1507.107912410004</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>-2511.650312410005</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>-3039.082612410004</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8790,7 +8790,7 @@
         <v>-3039.082612410004</v>
       </c>
       <c r="H323">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>-2805.008612410004</v>
       </c>
       <c r="H324">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>-3062.723812410004</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>-4945.791212410004</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>-4945.531212410004</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>-4991.400612410003</v>
       </c>
       <c r="H328">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8946,7 +8946,7 @@
         <v>-4784.774312410003</v>
       </c>
       <c r="H329">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>-4786.718212410004</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>-5755.830812410004</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>-803827.7018295402</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>-803939.9444295402</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>-804109.7030295401</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>-803767.6129295401</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>-803369.7058295402</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>-803550.3944295401</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>-800743.9147295401</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>-797852.4853295401</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>-799700.7144295401</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>-798658.28812954</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>-798278.5927295401</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>-798016.3194295401</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>-798790.8270295401</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>-797791.5697291901</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>-796097.4107291901</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>-797079.9551291901</v>
       </c>
       <c r="H416">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>-797614.6721291901</v>
       </c>
       <c r="H417">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>-797465.6614291901</v>
       </c>
       <c r="H418">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -11286,7 +11286,7 @@
         <v>-795939.6073291901</v>
       </c>
       <c r="H419">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="420" spans="1:8">
@@ -11312,7 +11312,7 @@
         <v>-796412.3249291901</v>
       </c>
       <c r="H420">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="421" spans="1:8">
@@ -11338,7 +11338,7 @@
         <v>-796405.3249291901</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="422" spans="1:8">
@@ -11364,7 +11364,7 @@
         <v>-796049.1042291902</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="423" spans="1:8">
@@ -11390,7 +11390,7 @@
         <v>-796235.5450291901</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="424" spans="1:8">
@@ -11416,7 +11416,7 @@
         <v>-796235.5450291901</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="425" spans="1:8">
@@ -11442,7 +11442,7 @@
         <v>-796144.9438291901</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="426" spans="1:8">
@@ -11468,7 +11468,7 @@
         <v>-794055.6799291901</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427" spans="1:8">
@@ -11494,7 +11494,7 @@
         <v>-794155.69002919</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="428" spans="1:8">
@@ -11520,7 +11520,7 @@
         <v>-794057.69002919</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="429" spans="1:8">
@@ -11546,7 +11546,7 @@
         <v>-794418.18282919</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:8">
@@ -11572,7 +11572,7 @@
         <v>-794418.18282919</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:8">
@@ -11598,7 +11598,7 @@
         <v>-791086.92982919</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:8">
@@ -11624,7 +11624,7 @@
         <v>-791086.92982919</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="433" spans="1:8">
@@ -11650,7 +11650,7 @@
         <v>-792846.92762919</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="434" spans="1:8">
@@ -11676,7 +11676,7 @@
         <v>-792588.12012919</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="435" spans="1:8">
@@ -11702,7 +11702,7 @@
         <v>-792588.12012919</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="436" spans="1:8">
@@ -11728,7 +11728,7 @@
         <v>-792588.12012919</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="437" spans="1:8">
@@ -11754,7 +11754,7 @@
         <v>-792588.12012919</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="438" spans="1:8">
@@ -11780,7 +11780,7 @@
         <v>-794626.23042919</v>
       </c>
       <c r="H438">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="439" spans="1:8">
@@ -11806,7 +11806,7 @@
         <v>-794023.35736553</v>
       </c>
       <c r="H439">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="440" spans="1:8">
@@ -11832,7 +11832,7 @@
         <v>-794399.13126553</v>
       </c>
       <c r="H440">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="441" spans="1:8">
@@ -11858,7 +11858,7 @@
         <v>-794127.92566553</v>
       </c>
       <c r="H441">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="442" spans="1:8">
@@ -11884,7 +11884,7 @@
         <v>-794413.92246553</v>
       </c>
       <c r="H442">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="443" spans="1:8">
@@ -11910,7 +11910,7 @@
         <v>-792838.1923655299</v>
       </c>
       <c r="H443">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444" spans="1:8">
@@ -11936,7 +11936,7 @@
         <v>-792838.1923655299</v>
       </c>
       <c r="H444">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:8">
@@ -11962,7 +11962,7 @@
         <v>-791581.12696553</v>
       </c>
       <c r="H445">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:8">
@@ -11988,7 +11988,7 @@
         <v>-793923.78196553</v>
       </c>
       <c r="H446">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:8">
@@ -12014,7 +12014,7 @@
         <v>-794804.16206553</v>
       </c>
       <c r="H447">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="448" spans="1:8">
@@ -12040,7 +12040,7 @@
         <v>-792635.46706553</v>
       </c>
       <c r="H448">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="449" spans="1:8">
@@ -12066,7 +12066,7 @@
         <v>-791479.9434655301</v>
       </c>
       <c r="H449">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="450" spans="1:8">
@@ -12092,7 +12092,7 @@
         <v>-791479.9434655301</v>
       </c>
       <c r="H450">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="451" spans="1:8">
@@ -12118,7 +12118,7 @@
         <v>-795705.1411655301</v>
       </c>
       <c r="H451">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="452" spans="1:8">
@@ -12144,7 +12144,7 @@
         <v>-795705.1411655301</v>
       </c>
       <c r="H452">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453" spans="1:8">
@@ -12170,7 +12170,7 @@
         <v>-792410.4228655301</v>
       </c>
       <c r="H453">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="454" spans="1:8">
@@ -12196,7 +12196,7 @@
         <v>-797024.7500655302</v>
       </c>
       <c r="H454">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="455" spans="1:8">
@@ -12222,7 +12222,7 @@
         <v>-797018.5173655301</v>
       </c>
       <c r="H455">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456" spans="1:8">
@@ -12248,7 +12248,7 @@
         <v>-797018.5173655301</v>
       </c>
       <c r="H456">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="457" spans="1:8">
@@ -12274,7 +12274,7 @@
         <v>-797094.5173655301</v>
       </c>
       <c r="H457">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="458" spans="1:8">
@@ -12300,7 +12300,7 @@
         <v>-794952.1121655301</v>
       </c>
       <c r="H458">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="459" spans="1:8">
@@ -12326,7 +12326,7 @@
         <v>-794952.1121655301</v>
       </c>
       <c r="H459">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="460" spans="1:8">
@@ -12352,7 +12352,7 @@
         <v>-794952.1121655301</v>
       </c>
       <c r="H460">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="461" spans="1:8">
@@ -12378,7 +12378,7 @@
         <v>-794952.1121655301</v>
       </c>
       <c r="H461">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="462" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>-794952.1121655301</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>-795355.3946655301</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>-795355.3946655301</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>-796949.5326655301</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>-796949.5326655301</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>-796949.5326655301</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>-796949.5326655301</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>-796370.8131655301</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>-795234.8131655301</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>-795234.5601655301</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>-795360.6691655301</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>-795360.6691655301</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>-794470.1383655302</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>-797233.8696655302</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>-797233.8696655302</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>-797761.8867655302</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>-797761.8867655302</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>-797430.2643655302</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>-797481.8292655302</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>-797284.2133655302</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>-797543.0382655303</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>-797543.0382655303</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>-797121.6733655302</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -13002,7 +13002,7 @@
         <v>-797121.6733655302</v>
       </c>
       <c r="H485">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="486" spans="1:8">
@@ -13028,7 +13028,7 @@
         <v>-797425.1982655302</v>
       </c>
       <c r="H486">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="487" spans="1:8">
@@ -13054,7 +13054,7 @@
         <v>-798972.7143655302</v>
       </c>
       <c r="H487">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="488" spans="1:8">
@@ -13080,7 +13080,7 @@
         <v>-798972.4543655302</v>
       </c>
       <c r="H488">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="489" spans="1:8">
@@ -13106,7 +13106,7 @@
         <v>-806775.0928655302</v>
       </c>
       <c r="H489">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="490" spans="1:8">
@@ -13132,7 +13132,7 @@
         <v>-806719.9992655301</v>
       </c>
       <c r="H490">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="491" spans="1:8">
@@ -13158,7 +13158,7 @@
         <v>-806709.3486655301</v>
       </c>
       <c r="H491">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="492" spans="1:8">
@@ -13184,7 +13184,7 @@
         <v>-802987.3790439001</v>
       </c>
       <c r="H492">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:8">
@@ -13210,7 +13210,7 @@
         <v>-804873.7497439</v>
       </c>
       <c r="H493">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:8">
@@ -13236,7 +13236,7 @@
         <v>-805191.7738439001</v>
       </c>
       <c r="H494">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:8">
@@ -13262,7 +13262,7 @@
         <v>-805524.5160439</v>
       </c>
       <c r="H495">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="496" spans="1:8">
@@ -13288,7 +13288,7 @@
         <v>-806246.7950439</v>
       </c>
       <c r="H496">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="497" spans="1:8">
@@ -13314,7 +13314,7 @@
         <v>-806717.8682439</v>
       </c>
       <c r="H497">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="498" spans="1:8">
@@ -13340,7 +13340,7 @@
         <v>-806937.8682439</v>
       </c>
       <c r="H498">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="499" spans="1:8">
@@ -13366,7 +13366,7 @@
         <v>-806937.8682439</v>
       </c>
       <c r="H499">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="500" spans="1:8">
@@ -13392,7 +13392,7 @@
         <v>-807068.8682439</v>
       </c>
       <c r="H500">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="501" spans="1:8">
@@ -13418,7 +13418,7 @@
         <v>-807068.8682439</v>
       </c>
       <c r="H501">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="502" spans="1:8">
@@ -13444,7 +13444,7 @@
         <v>-807068.8682439</v>
       </c>
       <c r="H502">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="503" spans="1:8">
@@ -13470,7 +13470,7 @@
         <v>-810146.4864439</v>
       </c>
       <c r="H503">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="504" spans="1:8">
@@ -13496,7 +13496,7 @@
         <v>-810135.8873439</v>
       </c>
       <c r="H504">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="505" spans="1:8">
@@ -13522,7 +13522,7 @@
         <v>-818182.7139439001</v>
       </c>
       <c r="H505">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="506" spans="1:8">
@@ -13548,7 +13548,7 @@
         <v>-816763.6155439001</v>
       </c>
       <c r="H506">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="507" spans="1:8">
@@ -13574,7 +13574,7 @@
         <v>-816837.4904439001</v>
       </c>
       <c r="H507">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="508" spans="1:8">
@@ -13600,7 +13600,7 @@
         <v>-817034.2941439002</v>
       </c>
       <c r="H508">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="509" spans="1:8">
@@ -13626,7 +13626,7 @@
         <v>-817034.2941439002</v>
       </c>
       <c r="H509">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="510" spans="1:8">
@@ -13652,7 +13652,7 @@
         <v>-817034.2941439002</v>
       </c>
       <c r="H510">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="511" spans="1:8">
@@ -13678,7 +13678,7 @@
         <v>-817013.9941439001</v>
       </c>
       <c r="H511">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="512" spans="1:8">
@@ -13704,7 +13704,7 @@
         <v>-817023.9941439001</v>
       </c>
       <c r="H512">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="513" spans="1:8">
@@ -13730,7 +13730,7 @@
         <v>-817023.9941439001</v>
       </c>
       <c r="H513">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="514" spans="1:8">
@@ -13756,7 +13756,7 @@
         <v>-818179.0365439001</v>
       </c>
       <c r="H514">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="515" spans="1:8">
@@ -13782,7 +13782,7 @@
         <v>-819136.9416439001</v>
       </c>
       <c r="H515">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="516" spans="1:8">
@@ -13808,7 +13808,7 @@
         <v>-819136.6416439001</v>
       </c>
       <c r="H516">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="517" spans="1:8">
@@ -13834,7 +13834,7 @@
         <v>-819139.1416439001</v>
       </c>
       <c r="H517">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="518" spans="1:8">
@@ -13860,7 +13860,7 @@
         <v>-819279.0009439001</v>
       </c>
       <c r="H518">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="519" spans="1:8">
@@ -13886,7 +13886,7 @@
         <v>-820054.0645439001</v>
       </c>
       <c r="H519">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="520" spans="1:8">
@@ -13912,7 +13912,7 @@
         <v>-819398.3756439001</v>
       </c>
       <c r="H520">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="521" spans="1:8">
@@ -13938,7 +13938,7 @@
         <v>-819398.3756439001</v>
       </c>
       <c r="H521">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="522" spans="1:8">
@@ -13964,7 +13964,7 @@
         <v>-822553.8014439001</v>
       </c>
       <c r="H522">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="523" spans="1:8">
@@ -13990,7 +13990,7 @@
         <v>-821567.1690439001</v>
       </c>
       <c r="H523">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="524" spans="1:8">
@@ -14016,7 +14016,7 @@
         <v>-821567.1690439001</v>
       </c>
       <c r="H524">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="525" spans="1:8">
@@ -14042,7 +14042,7 @@
         <v>-820321.2303439</v>
       </c>
       <c r="H525">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="526" spans="1:8">
@@ -14068,7 +14068,7 @@
         <v>-819307.0315439</v>
       </c>
       <c r="H526">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="527" spans="1:8">
@@ -14094,7 +14094,7 @@
         <v>-818680.2902439</v>
       </c>
       <c r="H527">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="528" spans="1:8">
@@ -14120,7 +14120,7 @@
         <v>-819777.0761439</v>
       </c>
       <c r="H528">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="529" spans="1:8">
@@ -14146,7 +14146,7 @@
         <v>-820364.6304439</v>
       </c>
       <c r="H529">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="530" spans="1:8">
@@ -14172,7 +14172,7 @@
         <v>-820364.6304439</v>
       </c>
       <c r="H530">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="531" spans="1:8">
@@ -14198,7 +14198,7 @@
         <v>-820364.6304439</v>
       </c>
       <c r="H531">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="532" spans="1:8">
@@ -14224,7 +14224,7 @@
         <v>-820364.6304439</v>
       </c>
       <c r="H532">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="533" spans="1:8">
@@ -14250,7 +14250,7 @@
         <v>-820132.9754439</v>
       </c>
       <c r="H533">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="534" spans="1:8">
@@ -14276,7 +14276,7 @@
         <v>-820160.0460439</v>
       </c>
       <c r="H534">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="535" spans="1:8">
@@ -14302,7 +14302,7 @@
         <v>-820159.7860438999</v>
       </c>
       <c r="H535">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="536" spans="1:8">
@@ -14328,7 +14328,7 @@
         <v>-820159.7860438999</v>
       </c>
       <c r="H536">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="537" spans="1:8">
@@ -14354,7 +14354,7 @@
         <v>-820159.7860438999</v>
       </c>
       <c r="H537">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="538" spans="1:8">
@@ -14380,7 +14380,7 @@
         <v>-820159.7860438999</v>
       </c>
       <c r="H538">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="539" spans="1:8">
@@ -14406,7 +14406,7 @@
         <v>-816828.4304438999</v>
       </c>
       <c r="H539">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="540" spans="1:8">
@@ -14432,7 +14432,7 @@
         <v>-816828.4304438999</v>
       </c>
       <c r="H540">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="541" spans="1:8">
@@ -14458,7 +14458,7 @@
         <v>-816828.4304438999</v>
       </c>
       <c r="H541">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="542" spans="1:8">
@@ -14484,7 +14484,7 @@
         <v>-813626.9044439</v>
       </c>
       <c r="H542">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="543" spans="1:8">
@@ -14510,7 +14510,7 @@
         <v>-813626.9044439</v>
       </c>
       <c r="H543">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="544" spans="1:8">
@@ -14536,7 +14536,7 @@
         <v>-813626.9044439</v>
       </c>
       <c r="H544">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="545" spans="1:8">
@@ -14562,7 +14562,7 @@
         <v>-814077.0841439</v>
       </c>
       <c r="H545">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="546" spans="1:8">
@@ -14588,7 +14588,7 @@
         <v>-814023.9551439</v>
       </c>
       <c r="H546">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="547" spans="1:8">
@@ -14614,7 +14614,7 @@
         <v>-815326.0571439</v>
       </c>
       <c r="H547">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="548" spans="1:8">
@@ -14640,7 +14640,7 @@
         <v>-815316.1607439</v>
       </c>
       <c r="H548">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="549" spans="1:8">
@@ -14666,7 +14666,7 @@
         <v>-815316.1607439</v>
       </c>
       <c r="H549">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="550" spans="1:8">
@@ -14692,7 +14692,7 @@
         <v>-815295.9007439</v>
       </c>
       <c r="H550">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="551" spans="1:8">
@@ -14718,7 +14718,7 @@
         <v>-815295.9007439</v>
       </c>
       <c r="H551">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="552" spans="1:8">
@@ -14744,7 +14744,7 @@
         <v>-817016.6170439</v>
       </c>
       <c r="H552">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="553" spans="1:8">
@@ -14770,7 +14770,7 @@
         <v>-815148.2714439</v>
       </c>
       <c r="H553">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="554" spans="1:8">
@@ -14796,7 +14796,7 @@
         <v>-815148.2714439</v>
       </c>
       <c r="H554">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="555" spans="1:8">
@@ -14822,7 +14822,7 @@
         <v>-814301.5766438999</v>
       </c>
       <c r="H555">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="556" spans="1:8">
@@ -14848,7 +14848,7 @@
         <v>-814212.6184438999</v>
       </c>
       <c r="H556">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="557" spans="1:8">
@@ -14874,7 +14874,7 @@
         <v>-814357.4759438999</v>
       </c>
       <c r="H557">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="558" spans="1:8">
@@ -14900,7 +14900,7 @@
         <v>-814357.2159438999</v>
       </c>
       <c r="H558">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="559" spans="1:8">
@@ -14926,7 +14926,7 @@
         <v>-813035.4759438999</v>
       </c>
       <c r="H559">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="560" spans="1:8">
@@ -14952,7 +14952,7 @@
         <v>-813035.2159438999</v>
       </c>
       <c r="H560">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="561" spans="1:8">
@@ -14978,7 +14978,7 @@
         <v>-813037.5591438999</v>
       </c>
       <c r="H561">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="562" spans="1:8">
@@ -15004,7 +15004,7 @@
         <v>-811038.3053439</v>
       </c>
       <c r="H562">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="563" spans="1:8">
@@ -15030,7 +15030,7 @@
         <v>-812213.5328439</v>
       </c>
       <c r="H563">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="564" spans="1:8">
@@ -15056,7 +15056,7 @@
         <v>-812213.5328439</v>
       </c>
       <c r="H564">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="565" spans="1:8">
@@ -15082,7 +15082,7 @@
         <v>-810735.0287439</v>
       </c>
       <c r="H565">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="566" spans="1:8">
@@ -15108,7 +15108,7 @@
         <v>-811449.0977439</v>
       </c>
       <c r="H566">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="567" spans="1:8">
@@ -15134,7 +15134,7 @@
         <v>-811448.8377439</v>
       </c>
       <c r="H567">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="568" spans="1:8">
@@ -15160,7 +15160,7 @@
         <v>-811448.8377439</v>
       </c>
       <c r="H568">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="569" spans="1:8">
@@ -15186,7 +15186,7 @@
         <v>-811448.8377439</v>
       </c>
       <c r="H569">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="570" spans="1:8">
@@ -15212,7 +15212,7 @@
         <v>-811448.8377439</v>
       </c>
       <c r="H570">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="571" spans="1:8">
@@ -15238,7 +15238,7 @@
         <v>-811529.5426439</v>
       </c>
       <c r="H571">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="572" spans="1:8">
@@ -15264,7 +15264,7 @@
         <v>-813031.3831439001</v>
       </c>
       <c r="H572">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="573" spans="1:8">
@@ -15290,7 +15290,7 @@
         <v>-813031.3831439001</v>
       </c>
       <c r="H573">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="574" spans="1:8">
@@ -15316,7 +15316,7 @@
         <v>-812924.7198439001</v>
       </c>
       <c r="H574">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="575" spans="1:8">
@@ -15342,7 +15342,7 @@
         <v>-813119.2437439001</v>
       </c>
       <c r="H575">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="576" spans="1:8">
@@ -15368,7 +15368,7 @@
         <v>-813119.2437439001</v>
       </c>
       <c r="H576">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="577" spans="1:8">
@@ -15394,7 +15394,7 @@
         <v>-814358.6351439001</v>
       </c>
       <c r="H577">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="578" spans="1:8">
@@ -15420,7 +15420,7 @@
         <v>-814006.0973439</v>
       </c>
       <c r="H578">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="579" spans="1:8">
@@ -15446,7 +15446,7 @@
         <v>-814721.8399439</v>
       </c>
       <c r="H579">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="580" spans="1:8">
@@ -15472,7 +15472,7 @@
         <v>-815552.4943439</v>
       </c>
       <c r="H580">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="581" spans="1:8">
@@ -15498,7 +15498,7 @@
         <v>-815522.4943439</v>
       </c>
       <c r="H581">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="582" spans="1:8">
@@ -15524,7 +15524,7 @@
         <v>-815522.4943439</v>
       </c>
       <c r="H582">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="583" spans="1:8">
@@ -15550,7 +15550,7 @@
         <v>-815583.2020439</v>
       </c>
       <c r="H583">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="584" spans="1:8">
@@ -15576,7 +15576,7 @@
         <v>-817035.0907439</v>
       </c>
       <c r="H584">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="585" spans="1:8">
@@ -15602,7 +15602,7 @@
         <v>-816105.0131439001</v>
       </c>
       <c r="H585">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="586" spans="1:8">
@@ -15628,7 +15628,7 @@
         <v>-815941.0131439001</v>
       </c>
       <c r="H586">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="587" spans="1:8">
@@ -15654,7 +15654,7 @@
         <v>-816225.0574439</v>
       </c>
       <c r="H587">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="588" spans="1:8">
@@ -15680,7 +15680,7 @@
         <v>-815405.8435439001</v>
       </c>
       <c r="H588">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="589" spans="1:8">
@@ -15706,7 +15706,7 @@
         <v>-813091.1137439001</v>
       </c>
       <c r="H589">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="590" spans="1:8">
@@ -15732,7 +15732,7 @@
         <v>-814704.6051439001</v>
       </c>
       <c r="H590">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="591" spans="1:8">
@@ -15758,7 +15758,7 @@
         <v>-814873.0545439002</v>
       </c>
       <c r="H591">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="592" spans="1:8">
@@ -15784,7 +15784,7 @@
         <v>-814873.0545439002</v>
       </c>
       <c r="H592">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="593" spans="1:8">
@@ -15810,7 +15810,7 @@
         <v>-816456.4902439002</v>
       </c>
       <c r="H593">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="594" spans="1:8">
@@ -15836,7 +15836,7 @@
         <v>-816143.2074439002</v>
       </c>
       <c r="H594">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="595" spans="1:8">
@@ -15862,7 +15862,7 @@
         <v>-816143.2074439002</v>
       </c>
       <c r="H595">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="596" spans="1:8">
@@ -15888,7 +15888,7 @@
         <v>-816143.2074439002</v>
       </c>
       <c r="H596">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="597" spans="1:8">
@@ -15914,7 +15914,7 @@
         <v>-815268.7132439002</v>
       </c>
       <c r="H597">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="598" spans="1:8">
@@ -15940,7 +15940,7 @@
         <v>-816291.7132439002</v>
       </c>
       <c r="H598">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="599" spans="1:8">
@@ -15966,7 +15966,7 @@
         <v>-811798.9456439002</v>
       </c>
       <c r="H599">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="600" spans="1:8">
@@ -15992,7 +15992,7 @@
         <v>-812048.9456439002</v>
       </c>
       <c r="H600">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="601" spans="1:8">
@@ -16018,7 +16018,7 @@
         <v>-811647.0571600702</v>
       </c>
       <c r="H601">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="602" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>-811836.2848600702</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16070,7 +16070,7 @@
         <v>-811799.8770600702</v>
       </c>
       <c r="H603">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="604" spans="1:8">
@@ -16096,7 +16096,7 @@
         <v>-810886.7792600702</v>
       </c>
       <c r="H604">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="605" spans="1:8">
@@ -16122,7 +16122,7 @@
         <v>-810899.5191600702</v>
       </c>
       <c r="H605">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="606" spans="1:8">
@@ -16148,7 +16148,7 @@
         <v>-810899.5191600702</v>
       </c>
       <c r="H606">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="607" spans="1:8">
@@ -16174,7 +16174,7 @@
         <v>-810364.0485600702</v>
       </c>
       <c r="H607">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="608" spans="1:8">
@@ -16200,7 +16200,7 @@
         <v>-812220.3784600702</v>
       </c>
       <c r="H608">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="609" spans="1:8">
@@ -16226,7 +16226,7 @@
         <v>-813182.8905600703</v>
       </c>
       <c r="H609">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="610" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>-813182.8905600703</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>-812676.3360600703</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16304,7 +16304,7 @@
         <v>-813160.4162600703</v>
       </c>
       <c r="H612">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="613" spans="1:8">
@@ -16330,7 +16330,7 @@
         <v>-813149.0392600703</v>
       </c>
       <c r="H613">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="614" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>-812694.4225466703</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>-813191.2460466704</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>-813621.5711466704</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>-813617.9080977604</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>-814657.1809354504</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>-812387.4952354503</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>-812387.4952354503</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>-811273.0033513303</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>-813340.2793513302</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>-814053.4876149702</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>-814053.4876149702</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>-813331.2876149702</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>-813409.4876149702</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>-812625.7201149702</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16720,7 +16720,7 @@
         <v>-813205.6603149702</v>
       </c>
       <c r="H628">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="629" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>-812653.9081149702</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>-812653.9081149702</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>-812557.5308149701</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>-812580.5364149702</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>-812580.5364149702</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>-812580.5364149702</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>-812524.6237149702</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>-812711.9137149702</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>-812132.0727149702</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>-812193.0655149702</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>-818733.7515149702</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>-813645.4536786102</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>-813645.4536786102</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">
@@ -17084,7 +17084,7 @@
         <v>-811723.5802814801</v>
       </c>
       <c r="H642">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="643" spans="1:8">
@@ -17110,7 +17110,7 @@
         <v>-812226.0928442901</v>
       </c>
       <c r="H643">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="644" spans="1:8">
@@ -17136,7 +17136,7 @@
         <v>-808284.87953774</v>
       </c>
       <c r="H644">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="645" spans="1:8">
@@ -17162,7 +17162,7 @@
         <v>-808629.4683377401</v>
       </c>
       <c r="H645">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="646" spans="1:8">
@@ -17188,7 +17188,7 @@
         <v>-807695.6529377401</v>
       </c>
       <c r="H646">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="647" spans="1:8">
@@ -17214,7 +17214,7 @@
         <v>-807695.6529377401</v>
       </c>
       <c r="H647">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="648" spans="1:8">
@@ -17240,7 +17240,7 @@
         <v>-816526.7727377401</v>
       </c>
       <c r="H648">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="649" spans="1:8">
@@ -17266,7 +17266,7 @@
         <v>-816526.7727377401</v>
       </c>
       <c r="H649">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="650" spans="1:8">
@@ -17292,7 +17292,7 @@
         <v>-816526.47273774</v>
       </c>
       <c r="H650">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="651" spans="1:8">
@@ -17318,7 +17318,7 @@
         <v>-817396.6577377401</v>
       </c>
       <c r="H651">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="652" spans="1:8">
@@ -17344,7 +17344,7 @@
         <v>-817396.6577377401</v>
       </c>
       <c r="H652">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="653" spans="1:8">
@@ -17370,7 +17370,7 @@
         <v>-817049.8269377401</v>
       </c>
       <c r="H653">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="654" spans="1:8">
@@ -17396,7 +17396,7 @@
         <v>-817044.82193274</v>
       </c>
       <c r="H654">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="655" spans="1:8">
@@ -17422,7 +17422,7 @@
         <v>-817733.8922327401</v>
       </c>
       <c r="H655">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="656" spans="1:8">
@@ -17448,7 +17448,7 @@
         <v>-818029.3617327401</v>
       </c>
       <c r="H656">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="657" spans="1:8">
@@ -17474,7 +17474,7 @@
         <v>-818029.3617327401</v>
       </c>
       <c r="H657">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="658" spans="1:8">
@@ -17500,7 +17500,7 @@
         <v>-818029.06173274</v>
       </c>
       <c r="H658">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="659" spans="1:8">
@@ -17526,7 +17526,7 @@
         <v>-818029.06173274</v>
       </c>
       <c r="H659">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="660" spans="1:8">
@@ -17552,7 +17552,7 @@
         <v>-818029.06173274</v>
       </c>
       <c r="H660">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="661" spans="1:8">
@@ -17578,7 +17578,7 @@
         <v>-817185.25813274</v>
       </c>
       <c r="H661">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="662" spans="1:8">
@@ -17604,7 +17604,7 @@
         <v>-817370.4584327401</v>
       </c>
       <c r="H662">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="663" spans="1:8">
@@ -17630,7 +17630,7 @@
         <v>-817194.9534327401</v>
       </c>
       <c r="H663">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="664" spans="1:8">
@@ -17656,7 +17656,7 @@
         <v>-817174.9534327401</v>
       </c>
       <c r="H664">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="665" spans="1:8">
@@ -17682,7 +17682,7 @@
         <v>-817174.9534327401</v>
       </c>
       <c r="H665">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="666" spans="1:8">
@@ -17708,7 +17708,7 @@
         <v>-817174.9534327401</v>
       </c>
       <c r="H666">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="667" spans="1:8">
@@ -17734,7 +17734,7 @@
         <v>-822227.41343274</v>
       </c>
       <c r="H667">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="668" spans="1:8">
@@ -17760,7 +17760,7 @@
         <v>-820952.0993327401</v>
       </c>
       <c r="H668">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="669" spans="1:8">
@@ -17786,7 +17786,7 @@
         <v>-820868.19043274</v>
       </c>
       <c r="H669">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="670" spans="1:8">
@@ -17812,7 +17812,7 @@
         <v>-822190.5673327401</v>
       </c>
       <c r="H670">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="671" spans="1:8">
@@ -17838,7 +17838,7 @@
         <v>-822166.74813274</v>
       </c>
       <c r="H671">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="672" spans="1:8">
@@ -17864,7 +17864,7 @@
         <v>-822190.27533274</v>
       </c>
       <c r="H672">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="673" spans="1:8">
@@ -17890,7 +17890,7 @@
         <v>-822190.27533274</v>
       </c>
       <c r="H673">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="674" spans="1:8">
@@ -17916,7 +17916,7 @@
         <v>-821886.3123327401</v>
       </c>
       <c r="H674">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="675" spans="1:8">
@@ -17942,7 +17942,7 @@
         <v>-821005.86723274</v>
       </c>
       <c r="H675">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="676" spans="1:8">
@@ -17968,7 +17968,7 @@
         <v>-820811.64793274</v>
       </c>
       <c r="H676">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="677" spans="1:8">
@@ -17994,7 +17994,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H677">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="678" spans="1:8">
@@ -18020,7 +18020,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H678">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="679" spans="1:8">
@@ -18046,7 +18046,7 @@
         <v>-820439.0718327401</v>
       </c>
       <c r="H679">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="680" spans="1:8">
@@ -18072,7 +18072,7 @@
         <v>-820426.7810327401</v>
       </c>
       <c r="H680">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="681" spans="1:8">
@@ -18098,7 +18098,7 @@
         <v>-820601.9529327401</v>
       </c>
       <c r="H681">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="682" spans="1:8">
@@ -18124,7 +18124,7 @@
         <v>-819507.8429327401</v>
       </c>
       <c r="H682">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="683" spans="1:8">
@@ -18150,7 +18150,7 @@
         <v>-819866.7149327401</v>
       </c>
       <c r="H683">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="684" spans="1:8">
@@ -18176,7 +18176,7 @@
         <v>-819866.7149327401</v>
       </c>
       <c r="H684">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="685" spans="1:8">
@@ -18202,7 +18202,7 @@
         <v>-821010.8773327401</v>
       </c>
       <c r="H685">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="686" spans="1:8">
@@ -18228,7 +18228,7 @@
         <v>-819872.4960327401</v>
       </c>
       <c r="H686">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="687" spans="1:8">
@@ -18254,7 +18254,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H687">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="688" spans="1:8">
@@ -18280,7 +18280,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H688">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="689" spans="1:8">
@@ -18306,7 +18306,7 @@
         <v>-820064.4105273001</v>
       </c>
       <c r="H689">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="690" spans="1:8">
@@ -18332,7 +18332,7 @@
         <v>-822577.9381273001</v>
       </c>
       <c r="H690">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="691" spans="1:8">
@@ -18358,7 +18358,7 @@
         <v>-823218.0143273001</v>
       </c>
       <c r="H691">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="692" spans="1:8">
@@ -18384,7 +18384,7 @@
         <v>-822895.2818273001</v>
       </c>
       <c r="H692">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="693" spans="1:8">
@@ -18410,7 +18410,7 @@
         <v>-822905.0304273001</v>
       </c>
       <c r="H693">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="694" spans="1:8">
@@ -18436,7 +18436,7 @@
         <v>-822752.7244273002</v>
       </c>
       <c r="H694">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="695" spans="1:8">
@@ -18462,7 +18462,7 @@
         <v>-822806.9670273002</v>
       </c>
       <c r="H695">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="696" spans="1:8">
@@ -18488,7 +18488,7 @@
         <v>-825436.6433273002</v>
       </c>
       <c r="H696">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="697" spans="1:8">
@@ -18514,7 +18514,7 @@
         <v>-829282.5216273002</v>
       </c>
       <c r="H697">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="698" spans="1:8">
@@ -18540,7 +18540,7 @@
         <v>-828054.1171273002</v>
       </c>
       <c r="H698">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="699" spans="1:8">
@@ -18566,7 +18566,7 @@
         <v>-827701.5406273003</v>
       </c>
       <c r="H699">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="700" spans="1:8">
@@ -18592,7 +18592,7 @@
         <v>-829245.5696273003</v>
       </c>
       <c r="H700">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="701" spans="1:8">
@@ -18618,7 +18618,7 @@
         <v>-829239.9943273002</v>
       </c>
       <c r="H701">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="702" spans="1:8">
@@ -18644,7 +18644,7 @@
         <v>-829239.9943273002</v>
       </c>
       <c r="H702">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="703" spans="1:8">
@@ -18670,7 +18670,7 @@
         <v>-829105.0230273003</v>
       </c>
       <c r="H703">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="704" spans="1:8">
@@ -18696,7 +18696,7 @@
         <v>-829105.0230273003</v>
       </c>
       <c r="H704">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="705" spans="1:8">
@@ -18722,7 +18722,7 @@
         <v>-829105.0230273003</v>
       </c>
       <c r="H705">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="706" spans="1:8">
@@ -18748,7 +18748,7 @@
         <v>-829105.0230273003</v>
       </c>
       <c r="H706">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="707" spans="1:8">
@@ -18774,7 +18774,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H707">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="708" spans="1:8">
@@ -18800,7 +18800,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H708">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="709" spans="1:8">
@@ -18826,7 +18826,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H709">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="710" spans="1:8">
@@ -18852,7 +18852,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H710">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="711" spans="1:8">
@@ -18878,7 +18878,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H711">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="712" spans="1:8">
@@ -18904,7 +18904,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H712">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="713" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>-829736.1257273003</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>-829742.0257273003</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>-829742.0257273003</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>-829541.6166273003</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>-829539.9451127603</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>-829586.7488127603</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>-829586.7488127603</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>-831465.4076127603</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>-831845.1030127603</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>-831845.1030127603</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>-832099.1900127603</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>-832099.1900127603</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>-832099.1900127603</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>-832199.4440127603</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="732" spans="1:8">
@@ -19424,7 +19424,7 @@
         <v>-832249.4440127603</v>
       </c>
       <c r="H732">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="733" spans="1:8">
@@ -19450,7 +19450,7 @@
         <v>-832305.7231127603</v>
       </c>
       <c r="H733">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="734" spans="1:8">
@@ -19476,7 +19476,7 @@
         <v>-835244.7668127604</v>
       </c>
       <c r="H734">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="735" spans="1:8">
@@ -19502,7 +19502,7 @@
         <v>-835244.7668127604</v>
       </c>
       <c r="H735">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="736" spans="1:8">
@@ -19528,7 +19528,7 @@
         <v>-835244.7668127604</v>
       </c>
       <c r="H736">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="737" spans="1:8">
@@ -19580,7 +19580,7 @@
         <v>-835065.8101291104</v>
       </c>
       <c r="H738">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="739" spans="1:8">
@@ -19606,7 +19606,7 @@
         <v>-835125.8677291103</v>
       </c>
       <c r="H739">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="740" spans="1:8">
@@ -19632,7 +19632,7 @@
         <v>-835125.8677291103</v>
       </c>
       <c r="H740">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="741" spans="1:8">
@@ -19788,7 +19788,7 @@
         <v>-834772.3692291102</v>
       </c>
       <c r="H746">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="747" spans="1:8">
@@ -19814,7 +19814,7 @@
         <v>-834787.9040291102</v>
       </c>
       <c r="H747">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="748" spans="1:8">
@@ -19840,7 +19840,7 @@
         <v>-836778.7183023202</v>
       </c>
       <c r="H748">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="749" spans="1:8">
@@ -19892,7 +19892,7 @@
         <v>-837839.4016755302</v>
       </c>
       <c r="H750">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="751" spans="1:8">
@@ -19918,7 +19918,7 @@
         <v>-837763.1363755303</v>
       </c>
       <c r="H751">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="752" spans="1:8">
@@ -19944,7 +19944,7 @@
         <v>-837863.1363755303</v>
       </c>
       <c r="H752">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="753" spans="1:8">
@@ -19970,7 +19970,7 @@
         <v>-837361.0786446102</v>
       </c>
       <c r="H753">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="754" spans="1:8">
@@ -19996,7 +19996,7 @@
         <v>-842075.6778999702</v>
       </c>
       <c r="H754">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="755" spans="1:8">
@@ -20022,7 +20022,7 @@
         <v>-842653.4167999702</v>
       </c>
       <c r="H755">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="756" spans="1:8">
@@ -20048,7 +20048,7 @@
         <v>-842653.4167999702</v>
       </c>
       <c r="H756">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="757" spans="1:8">
@@ -20074,7 +20074,7 @@
         <v>-842653.4167999702</v>
       </c>
       <c r="H757">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="758" spans="1:8">
@@ -20100,7 +20100,7 @@
         <v>-841690.2325999702</v>
       </c>
       <c r="H758">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="759" spans="1:8">
@@ -20126,7 +20126,7 @@
         <v>-841690.2325999702</v>
       </c>
       <c r="H759">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="760" spans="1:8">
@@ -20152,7 +20152,7 @@
         <v>-841182.6805999702</v>
       </c>
       <c r="H760">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="761" spans="1:8">
@@ -20178,7 +20178,7 @@
         <v>-841182.6805999702</v>
       </c>
       <c r="H761">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="762" spans="1:8">
@@ -20204,7 +20204,7 @@
         <v>-840987.6024999701</v>
       </c>
       <c r="H762">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="763" spans="1:8">
@@ -20230,7 +20230,7 @@
         <v>-841468.2370999701</v>
       </c>
       <c r="H763">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="764" spans="1:8">
@@ -20256,7 +20256,7 @@
         <v>-841713.1838999701</v>
       </c>
       <c r="H764">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="765" spans="1:8">
@@ -20282,7 +20282,7 @@
         <v>-841007.1035999701</v>
       </c>
       <c r="H765">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="766" spans="1:8">
@@ -20308,7 +20308,7 @@
         <v>-841007.1035999701</v>
       </c>
       <c r="H766">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="767" spans="1:8">
@@ -20334,7 +20334,7 @@
         <v>-841007.1035999701</v>
       </c>
       <c r="H767">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="768" spans="1:8">
@@ -20360,7 +20360,7 @@
         <v>-841007.1035999701</v>
       </c>
       <c r="H768">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="769" spans="1:8">
@@ -20386,7 +20386,7 @@
         <v>-837603.1499999701</v>
       </c>
       <c r="H769">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="770" spans="1:8">
@@ -20412,7 +20412,7 @@
         <v>-837603.1499999701</v>
       </c>
       <c r="H770">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="771" spans="1:8">
@@ -20438,7 +20438,7 @@
         <v>-837603.1499999701</v>
       </c>
       <c r="H771">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="772" spans="1:8">
@@ -20464,7 +20464,7 @@
         <v>-837603.1499999701</v>
       </c>
       <c r="H772">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="773" spans="1:8">
@@ -20490,7 +20490,7 @@
         <v>-837603.1499999701</v>
       </c>
       <c r="H773">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="774" spans="1:8">
@@ -20516,7 +20516,7 @@
         <v>-836026.2013999701</v>
       </c>
       <c r="H774">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="775" spans="1:8">
@@ -20542,7 +20542,7 @@
         <v>-836026.2013999701</v>
       </c>
       <c r="H775">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="776" spans="1:8">
@@ -20568,7 +20568,7 @@
         <v>-836414.8182999701</v>
       </c>
       <c r="H776">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="777" spans="1:8">
@@ -20594,7 +20594,7 @@
         <v>-836682.6270999701</v>
       </c>
       <c r="H777">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="778" spans="1:8">
@@ -20620,7 +20620,7 @@
         <v>-836826.4270999702</v>
       </c>
       <c r="H778">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="779" spans="1:8">
@@ -20646,7 +20646,7 @@
         <v>-837104.4270999702</v>
       </c>
       <c r="H779">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="780" spans="1:8">
@@ -20672,7 +20672,7 @@
         <v>-837427.8050999702</v>
       </c>
       <c r="H780">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="781" spans="1:8">
@@ -20698,7 +20698,7 @@
         <v>-837427.8050999702</v>
       </c>
       <c r="H781">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="782" spans="1:8">
@@ -20724,7 +20724,7 @@
         <v>-837050.0039999702</v>
       </c>
       <c r="H782">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="783" spans="1:8">
@@ -20750,7 +20750,7 @@
         <v>-837050.0039999702</v>
       </c>
       <c r="H783">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="784" spans="1:8">
@@ -20776,7 +20776,7 @@
         <v>-837050.0039999702</v>
       </c>
       <c r="H784">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="785" spans="1:8">
@@ -20802,7 +20802,7 @@
         <v>-837050.0039999702</v>
       </c>
       <c r="H785">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="786" spans="1:8">
@@ -20828,7 +20828,7 @@
         <v>-836390.1715999702</v>
       </c>
       <c r="H786">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="787" spans="1:8">
@@ -20854,7 +20854,7 @@
         <v>-836389.8715999702</v>
       </c>
       <c r="H787">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="788" spans="1:8">
@@ -20880,7 +20880,7 @@
         <v>-836389.8715999702</v>
       </c>
       <c r="H788">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="789" spans="1:8">
@@ -20906,7 +20906,7 @@
         <v>-835699.8715999702</v>
       </c>
       <c r="H789">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="790" spans="1:8">
@@ -20932,7 +20932,7 @@
         <v>-835877.5780999701</v>
       </c>
       <c r="H790">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="791" spans="1:8">
@@ -20958,7 +20958,7 @@
         <v>-835877.5780999701</v>
       </c>
       <c r="H791">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="792" spans="1:8">
@@ -20984,7 +20984,7 @@
         <v>-836009.7790999701</v>
       </c>
       <c r="H792">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="793" spans="1:8">
@@ -21010,7 +21010,7 @@
         <v>-836189.2502999702</v>
       </c>
       <c r="H793">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="794" spans="1:8">
@@ -21036,7 +21036,7 @@
         <v>-835280.2703999701</v>
       </c>
       <c r="H794">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="795" spans="1:8">
@@ -21062,7 +21062,7 @@
         <v>-835336.4921999702</v>
       </c>
       <c r="H795">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="796" spans="1:8">
@@ -21088,7 +21088,7 @@
         <v>-835894.9871999702</v>
       </c>
       <c r="H796">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="797" spans="1:8">
@@ -21114,7 +21114,7 @@
         <v>-837133.8662999702</v>
       </c>
       <c r="H797">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="798" spans="1:8">
@@ -21140,7 +21140,7 @@
         <v>-837921.9072999702</v>
       </c>
       <c r="H798">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="799" spans="1:8">
@@ -21166,7 +21166,7 @@
         <v>-835917.6799999701</v>
       </c>
       <c r="H799">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="800" spans="1:8">
@@ -21192,7 +21192,7 @@
         <v>-836845.7294999701</v>
       </c>
       <c r="H800">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="801" spans="1:8">
@@ -21218,7 +21218,7 @@
         <v>-836845.7294999701</v>
       </c>
       <c r="H801">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="802" spans="1:8">
@@ -21244,7 +21244,7 @@
         <v>-837646.84979997</v>
       </c>
       <c r="H802">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="803" spans="1:8">
@@ -21270,7 +21270,7 @@
         <v>-837646.84979997</v>
       </c>
       <c r="H803">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="804" spans="1:8">
@@ -21296,7 +21296,7 @@
         <v>-838180.91279997</v>
       </c>
       <c r="H804">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="805" spans="1:8">
@@ -21322,7 +21322,7 @@
         <v>-837726.20329997</v>
       </c>
       <c r="H805">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="806" spans="1:8">
@@ -21348,7 +21348,7 @@
         <v>-837726.20329997</v>
       </c>
       <c r="H806">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="807" spans="1:8">
@@ -21374,7 +21374,7 @@
         <v>-837773.91429997</v>
       </c>
       <c r="H807">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="808" spans="1:8">
@@ -21400,7 +21400,7 @@
         <v>-837817.91429997</v>
       </c>
       <c r="H808">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="809" spans="1:8">
@@ -21426,7 +21426,7 @@
         <v>-836951.33969997</v>
       </c>
       <c r="H809">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="810" spans="1:8">
@@ -21452,7 +21452,7 @@
         <v>-836449.33969997</v>
       </c>
       <c r="H810">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="811" spans="1:8">
@@ -21478,7 +21478,7 @@
         <v>-836674.70989997</v>
       </c>
       <c r="H811">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="812" spans="1:8">
@@ -21504,7 +21504,7 @@
         <v>-836674.70989997</v>
       </c>
       <c r="H812">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="813" spans="1:8">
@@ -21530,7 +21530,7 @@
         <v>-836624.70989997</v>
       </c>
       <c r="H813">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="814" spans="1:8">
@@ -21556,7 +21556,7 @@
         <v>-836624.70989997</v>
       </c>
       <c r="H814">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="815" spans="1:8">
@@ -21582,7 +21582,7 @@
         <v>-832750.84429997</v>
       </c>
       <c r="H815">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="816" spans="1:8">
@@ -21608,7 +21608,7 @@
         <v>-832750.84429997</v>
       </c>
       <c r="H816">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="817" spans="1:8">
@@ -21634,7 +21634,7 @@
         <v>-833085.23999997</v>
       </c>
       <c r="H817">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="818" spans="1:8">
@@ -21660,7 +21660,7 @@
         <v>-832773.33429997</v>
       </c>
       <c r="H818">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="819" spans="1:8">
@@ -21686,7 +21686,7 @@
         <v>-830000.9655282099</v>
       </c>
       <c r="H819">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="820" spans="1:8">
@@ -21712,7 +21712,7 @@
         <v>-830000.9655282099</v>
       </c>
       <c r="H820">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="821" spans="1:8">
@@ -21738,7 +21738,7 @@
         <v>-830000.9655282099</v>
       </c>
       <c r="H821">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="822" spans="1:8">
@@ -21764,7 +21764,7 @@
         <v>-822756.7717282099</v>
       </c>
       <c r="H822">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="823" spans="1:8">
@@ -21790,7 +21790,7 @@
         <v>-826036.1590282099</v>
       </c>
       <c r="H823">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="824" spans="1:8">
@@ -21816,7 +21816,7 @@
         <v>-855773.6400282099</v>
       </c>
       <c r="H824">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="825" spans="1:8">
@@ -21842,7 +21842,7 @@
         <v>-855797.5069282099</v>
       </c>
       <c r="H825">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="826" spans="1:8">
@@ -21868,7 +21868,7 @@
         <v>-854797.5069282099</v>
       </c>
       <c r="H826">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="827" spans="1:8">
@@ -21920,7 +21920,7 @@
         <v>-856399.9779282099</v>
       </c>
       <c r="H828">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="829" spans="1:8">
@@ -21946,7 +21946,7 @@
         <v>-856399.9779282099</v>
       </c>
       <c r="H829">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="830" spans="1:8">
@@ -21972,7 +21972,7 @@
         <v>-856399.9779282099</v>
       </c>
       <c r="H830">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="831" spans="1:8">
@@ -21998,7 +21998,7 @@
         <v>-856399.9779282099</v>
       </c>
       <c r="H831">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="832" spans="1:8">
@@ -22024,7 +22024,7 @@
         <v>-857597.21782821</v>
       </c>
       <c r="H832">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="833" spans="1:8">
@@ -22050,7 +22050,7 @@
         <v>-857505.39572821</v>
       </c>
       <c r="H833">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="834" spans="1:8">
@@ -22076,7 +22076,7 @@
         <v>-857505.39572821</v>
       </c>
       <c r="H834">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="835" spans="1:8">
@@ -22128,7 +22128,7 @@
         <v>-857313.07202821</v>
       </c>
       <c r="H836">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="837" spans="1:8">
@@ -22154,7 +22154,7 @@
         <v>-857313.07202821</v>
       </c>
       <c r="H837">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="838" spans="1:8">
@@ -22232,7 +22232,7 @@
         <v>-853692.5049282101</v>
       </c>
       <c r="H840">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="841" spans="1:8">
@@ -22258,7 +22258,7 @@
         <v>-854360.5414282101</v>
       </c>
       <c r="H841">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="842" spans="1:8">
@@ -22284,7 +22284,7 @@
         <v>-856102.0802282101</v>
       </c>
       <c r="H842">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="843" spans="1:8">
@@ -22440,7 +22440,7 @@
         <v>-857888.6932282101</v>
       </c>
       <c r="H848">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="849" spans="1:8">
@@ -22466,7 +22466,7 @@
         <v>-857488.6932282101</v>
       </c>
       <c r="H849">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="850" spans="1:8">
@@ -22544,7 +22544,7 @@
         <v>-859215.2335282101</v>
       </c>
       <c r="H852">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="853" spans="1:8">
@@ -22570,7 +22570,7 @@
         <v>-857265.2335282101</v>
       </c>
       <c r="H853">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="854" spans="1:8">
@@ -22648,7 +22648,7 @@
         <v>-857894.57992821</v>
       </c>
       <c r="H856">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="857" spans="1:8">
@@ -22674,7 +22674,7 @@
         <v>-868431.73262821</v>
       </c>
       <c r="H857">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="858" spans="1:8">
@@ -22700,7 +22700,7 @@
         <v>-868426.64792821</v>
       </c>
       <c r="H858">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="859" spans="1:8">
@@ -22778,7 +22778,7 @@
         <v>-866614.55972821</v>
       </c>
       <c r="H861">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="862" spans="1:8">
@@ -22804,7 +22804,7 @@
         <v>-865810.01682821</v>
       </c>
       <c r="H862">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="863" spans="1:8">
@@ -22830,7 +22830,7 @@
         <v>-864952.51792821</v>
       </c>
       <c r="H863">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="864" spans="1:8">
@@ -22856,7 +22856,7 @@
         <v>-864121.7009282099</v>
       </c>
       <c r="H864">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="865" spans="1:8">
@@ -22934,7 +22934,7 @@
         <v>-864443.36802821</v>
       </c>
       <c r="H867">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="868" spans="1:8">
@@ -22960,7 +22960,7 @@
         <v>-861322.38672821</v>
       </c>
       <c r="H868">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="869" spans="1:8">
@@ -22986,7 +22986,7 @@
         <v>-859393.94802821</v>
       </c>
       <c r="H869">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="870" spans="1:8">
@@ -23038,7 +23038,7 @@
         <v>-859248.21012821</v>
       </c>
       <c r="H871">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="872" spans="1:8">
@@ -23064,7 +23064,7 @@
         <v>-859248.21012821</v>
       </c>
       <c r="H872">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="873" spans="1:8">
@@ -23090,7 +23090,7 @@
         <v>-859248.21012821</v>
       </c>
       <c r="H873">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="874" spans="1:8">
@@ -23116,7 +23116,7 @@
         <v>-859328.21012821</v>
       </c>
       <c r="H874">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="875" spans="1:8">
@@ -23142,7 +23142,7 @@
         <v>-859943.48062821</v>
       </c>
       <c r="H875">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="876" spans="1:8">
@@ -23168,7 +23168,7 @@
         <v>-860730.04222821</v>
       </c>
       <c r="H876">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="877" spans="1:8">
@@ -23194,7 +23194,7 @@
         <v>-860730.04222821</v>
       </c>
       <c r="H877">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="878" spans="1:8">
@@ -23220,7 +23220,7 @@
         <v>-857994.88822821</v>
       </c>
       <c r="H878">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="879" spans="1:8">
@@ -23246,7 +23246,7 @@
         <v>-857994.88822821</v>
       </c>
       <c r="H879">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="880" spans="1:8">
@@ -23272,7 +23272,7 @@
         <v>-862360.53552821</v>
       </c>
       <c r="H880">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="881" spans="1:8">
@@ -23298,7 +23298,7 @@
         <v>-862250.53552821</v>
       </c>
       <c r="H881">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="882" spans="1:8">
@@ -23324,7 +23324,7 @@
         <v>-858660.8581282099</v>
       </c>
       <c r="H882">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="883" spans="1:8">
@@ -23350,7 +23350,7 @@
         <v>-858042.8581282099</v>
       </c>
       <c r="H883">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="884" spans="1:8">
@@ -23376,7 +23376,7 @@
         <v>-859086.3227282099</v>
       </c>
       <c r="H884">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="885" spans="1:8">
@@ -23402,7 +23402,7 @@
         <v>-852394.8205282099</v>
       </c>
       <c r="H885">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="886" spans="1:8">
@@ -23428,7 +23428,7 @@
         <v>-850474.7401698899</v>
       </c>
       <c r="H886">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="887" spans="1:8">
@@ -23454,7 +23454,7 @@
         <v>-834273.6637698899</v>
       </c>
       <c r="H887">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="888" spans="1:8">
@@ -23480,7 +23480,7 @@
         <v>-848424.3477698899</v>
       </c>
       <c r="H888">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="889" spans="1:8">
@@ -23506,7 +23506,7 @@
         <v>-848538.5565698899</v>
       </c>
       <c r="H889">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="890" spans="1:8">
@@ -23532,7 +23532,7 @@
         <v>-851886.8314698898</v>
       </c>
       <c r="H890">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="891" spans="1:8">
@@ -23558,7 +23558,7 @@
         <v>-852705.4094698898</v>
       </c>
       <c r="H891">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="892" spans="1:8">
@@ -23584,7 +23584,7 @@
         <v>-835520.8314698898</v>
       </c>
       <c r="H892">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="893" spans="1:8">
@@ -23610,7 +23610,7 @@
         <v>-835693.9716698899</v>
       </c>
       <c r="H893">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="894" spans="1:8">
@@ -23636,7 +23636,7 @@
         <v>-835642.4826698899</v>
       </c>
       <c r="H894">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="895" spans="1:8">
@@ -23662,7 +23662,7 @@
         <v>-835707.0967698899</v>
       </c>
       <c r="H895">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="896" spans="1:8">
@@ -23688,7 +23688,7 @@
         <v>-826461.4933698899</v>
       </c>
       <c r="H896">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="897" spans="1:8">
@@ -23714,7 +23714,7 @@
         <v>-823767.5774698899</v>
       </c>
       <c r="H897">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="898" spans="1:8">
@@ -23740,7 +23740,7 @@
         <v>-823767.5774698899</v>
       </c>
       <c r="H898">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="899" spans="1:8">
@@ -23766,7 +23766,7 @@
         <v>-822264.8667698898</v>
       </c>
       <c r="H899">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="900" spans="1:8">
@@ -23792,7 +23792,7 @@
         <v>-822264.8667698898</v>
       </c>
       <c r="H900">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="901" spans="1:8">
@@ -23818,7 +23818,7 @@
         <v>-824514.5391698899</v>
       </c>
       <c r="H901">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="902" spans="1:8">
@@ -23844,7 +23844,7 @@
         <v>-826570.6568698898</v>
       </c>
       <c r="H902">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="903" spans="1:8">
@@ -23870,7 +23870,7 @@
         <v>-826570.6568698898</v>
       </c>
       <c r="H903">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="904" spans="1:8">
@@ -23896,7 +23896,7 @@
         <v>-826570.1413698898</v>
       </c>
       <c r="H904">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="905" spans="1:8">
@@ -23922,7 +23922,7 @@
         <v>-826255.2139698898</v>
       </c>
       <c r="H905">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="906" spans="1:8">
@@ -23948,7 +23948,7 @@
         <v>-826272.6767698898</v>
       </c>
       <c r="H906">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="907" spans="1:8">
@@ -23974,7 +23974,7 @@
         <v>-824131.0127698898</v>
       </c>
       <c r="H907">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="908" spans="1:8">
@@ -24000,7 +24000,7 @@
         <v>-827182.0808698898</v>
       </c>
       <c r="H908">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="909" spans="1:8">
@@ -24026,7 +24026,7 @@
         <v>-827182.0808698898</v>
       </c>
       <c r="H909">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="910" spans="1:8">
@@ -24052,7 +24052,7 @@
         <v>-825083.1566698898</v>
       </c>
       <c r="H910">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="911" spans="1:8">
@@ -24078,7 +24078,7 @@
         <v>-823239.2646698898</v>
       </c>
       <c r="H911">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="912" spans="1:8">
@@ -24104,7 +24104,7 @@
         <v>-822712.0783698899</v>
       </c>
       <c r="H912">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="913" spans="1:8">
@@ -24130,7 +24130,7 @@
         <v>-819457.9345698899</v>
       </c>
       <c r="H913">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="914" spans="1:8">
@@ -24156,7 +24156,7 @@
         <v>-829730.9743698899</v>
       </c>
       <c r="H914">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="915" spans="1:8">
@@ -24182,7 +24182,7 @@
         <v>-832260.9885698899</v>
       </c>
       <c r="H915">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="916" spans="1:8">
@@ -24208,7 +24208,7 @@
         <v>-831070.66246989</v>
       </c>
       <c r="H916">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="917" spans="1:8">
@@ -24234,7 +24234,7 @@
         <v>-831958.3297698899</v>
       </c>
       <c r="H917">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="918" spans="1:8">
@@ -24260,7 +24260,7 @@
         <v>-831937.74936989</v>
       </c>
       <c r="H918">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="919" spans="1:8">
@@ -24286,7 +24286,7 @@
         <v>-829407.0379698899</v>
       </c>
       <c r="H919">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="920" spans="1:8">
@@ -24312,7 +24312,7 @@
         <v>-826247.3054698899</v>
       </c>
       <c r="H920">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="921" spans="1:8">
@@ -24338,7 +24338,7 @@
         <v>-827821.2679698899</v>
       </c>
       <c r="H921">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="922" spans="1:8">
@@ -24364,7 +24364,7 @@
         <v>-827141.1373698899</v>
       </c>
       <c r="H922">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="923" spans="1:8">
@@ -24390,7 +24390,7 @@
         <v>-822573.4970698899</v>
       </c>
       <c r="H923">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="924" spans="1:8">
@@ -24416,7 +24416,7 @@
         <v>-828635.6042335799</v>
       </c>
       <c r="H924">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="925" spans="1:8">
@@ -24442,7 +24442,7 @@
         <v>-828867.3488007199</v>
       </c>
       <c r="H925">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
